--- a/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>氏名</t>
   </si>
@@ -141,6 +141,47 @@
   </si>
   <si>
     <t>お疲れ様です。初めての議事録整理は大変かもしれないですが、よりよい納品物を出せるため、頑張ってください。</t>
+  </si>
+  <si>
+    <t>進捗報告</t>
+  </si>
+  <si>
+    <t>顧客面談（第3回）</t>
+  </si>
+  <si>
+    <t>要件定義書の修正が終わらなかったため、修正を行っています。</t>
+  </si>
+  <si>
+    <t>要件定義書を10/27(木)までに修正を完了し、リモートで確認を行っていただきます。</t>
+  </si>
+  <si>
+    <t>スケジュール表を作製したところ後半になるにつれて逼迫する現状を再認識し、すごく焦っています。
+今後は授業時間外でも作業を進め、遅れている部分を取り戻せるように尽力します。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。今回は私の失策により作業を停滞させてしまい申し訳ありません。次回はすぐに構想設計1回目のレビューを受ける予定です。朝会で確認を行います。要件定義書は木曜日の12時にバーチャルレビューを予約しています。それまでに仕上げをお願いします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義書のレビュー・要件定義書の修正お疲れ様でした。次回は構想設計書のレビューを行えるようにしましょう。                        			</t>
+  </si>
+  <si>
+    <t>お疲れ様です。要件定義書の修正には、ドキュメントの見やすさを工夫してください。</t>
+  </si>
+  <si>
+    <t>要件定義書の改稿</t>
+  </si>
+  <si>
+    <t>構想設計書の改稿</t>
+  </si>
+  <si>
+    <t>11月3日木曜日に要件定義書の確認をリモートで行ってもらいます。</t>
+  </si>
+  <si>
+    <t>要件定義書も見直しを終え修正したので今回のリモートチェックでどうにかOKをもらいたいです。
+リモートチェックをベースに授業時間外でも作業を勧めていきたいです。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。要件定義書の修正ありがとうございました。バーチャルレビューを活用しテンポアップを図りましょう。</t>
   </si>
 </sst>
 </file>
@@ -386,10 +427,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1957,14 +1998,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2233,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -3216,14 +3257,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3492,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -4475,14 +4516,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4751,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -6993,6 +7034,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -7000,8 +7043,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -7034,14 +7075,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -7055,7 +7100,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -7117,28 +7162,52 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13">
+        <v>80.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="11">
@@ -7207,7 +7276,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -7216,7 +7287,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -7225,7 +7298,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -7234,17 +7309,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -7253,7 +7332,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -7269,7 +7350,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -8293,14 +8376,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -8314,7 +8401,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -8376,19 +8463,35 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
+        <v>60.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13">
+        <v>70.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>80.0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
@@ -8466,7 +8569,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -8475,7 +8580,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -8484,7 +8591,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -8493,17 +8602,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -8528,7 +8641,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -9552,14 +9665,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -9787,7 +9900,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -10811,14 +10924,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -11046,7 +11159,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -12070,14 +12183,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -12305,7 +12418,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -13329,14 +13442,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -13564,7 +13677,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -14588,14 +14701,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -14823,7 +14936,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>

--- a/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="57">
   <si>
     <t>氏名</t>
   </si>
@@ -182,6 +182,32 @@
   </si>
   <si>
     <t>お疲れ様でした。要件定義書の修正ありがとうございました。バーチャルレビューを活用しテンポアップを図りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。バーチャルレビューも利用して遅れを取り戻すのをがんばってくださ。次週は、構想設計書がOK貰えて基本設計を作成できるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。遅れの原因を反省して対策を考えるのはよかったです。時間外でも頑張ってください。</t>
+  </si>
+  <si>
+    <t>構想設計の修正</t>
+  </si>
+  <si>
+    <t>構想設計の書式の書き直しを行いました。
+次回までに基本設計の「アカウント一覧画面」の作成を行います。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今回の要件定義書の修正は表の修正と構想設計とのすりあわせが主でした。次回までにOKしたいです。
+</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。要件定義と構想設計は今週のバーチャルレビューでOKが貰えるように確認作業を徹底しましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計書の作成を進めて、レビューでOKを貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>要件定義書の修正お疲れ様でした。基本設計書の画面設計を分担して来週のレビューを一発通過できるように頑張ってください。</t>
   </si>
 </sst>
 </file>
@@ -427,10 +453,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1998,14 +2024,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2259,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -3257,14 +3283,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3492,7 +3518,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -4516,14 +4542,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4751,7 +4777,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -8625,7 +8651,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -8641,7 +8669,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -9665,14 +9695,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +9720,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -9748,28 +9782,52 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>90.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>90.0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>50.0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="11">
@@ -9838,7 +9896,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -9847,7 +9907,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -9856,7 +9918,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -9865,17 +9929,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -9884,7 +9952,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -9900,7 +9970,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -10924,14 +10996,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -11159,7 +11231,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -12183,14 +12255,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -12418,7 +12490,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -13442,14 +13514,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -13677,7 +13749,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -14701,14 +14773,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -14936,7 +15008,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>

--- a/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="65">
   <si>
     <t>氏名</t>
   </si>
@@ -208,6 +208,31 @@
   </si>
   <si>
     <t>要件定義書の修正お疲れ様でした。基本設計書の画面設計を分担して来週のレビューを一発通過できるように頑張ってください。</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面の作成</t>
+  </si>
+  <si>
+    <t>構想設計の体裁の修正</t>
+  </si>
+  <si>
+    <t>基本設計（画面設計）の追加、修正</t>
+  </si>
+  <si>
+    <t>基本設計（テーブル）の確認</t>
+  </si>
+  <si>
+    <t>先週に引き続き基本設計の作成を行い、レビューを行っていただきました。
+初回のレビューとはいえ、指摘箇所が多かったことからもっと分かりやすい基本設計の資料を作成するよう考え、見直しを徹底したいと思います。</t>
+  </si>
+  <si>
+    <t>作業の遅れが深刻化しつつあります。皆さん忙しいことは重々承知しております。皆さんの負担を減らすことができるように私も取り組む所存です。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計と詳細設計を進めて、OK貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計書の一回目レビューで指摘された点をしっかり修正し、バーチャルレビューを活用して遅れを取り戻せることを期待します。</t>
   </si>
 </sst>
 </file>
@@ -10996,14 +11021,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -11017,7 +11046,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -11079,8 +11108,12 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>30.0</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
@@ -11088,8 +11121,12 @@
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
@@ -11097,8 +11134,12 @@
       <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10.0</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
@@ -11106,8 +11147,12 @@
       <c r="A9" s="11">
         <v>4.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13">
+        <v>60.0</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
@@ -11115,8 +11160,12 @@
       <c r="A10" s="11">
         <v>5.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13">
+        <v>30.0</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
@@ -11169,7 +11218,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -11178,7 +11229,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -11187,7 +11240,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -11196,17 +11251,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -11215,7 +11274,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -11231,7 +11292,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>

--- a/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
   <si>
     <t>氏名</t>
   </si>
@@ -234,6 +234,42 @@
   <si>
     <t>お疲れ様でした。基本設計書の一回目レビューで指摘された点をしっかり修正し、バーチャルレビューを活用して遅れを取り戻せることを期待します。</t>
   </si>
+  <si>
+    <t>基本設計の修正</t>
+  </si>
+  <si>
+    <t>顧客面談（基本設計）</t>
+  </si>
+  <si>
+    <t>基本設計の修正を行いました。
+できる限り今週の昼休みは参加します。</t>
+  </si>
+  <si>
+    <t>今後は時間外の作業を増やし遅れを取り戻したいと考えているが、なかなか全体の予定が合わず不安です。
+予定が合わないのであれば合わないなりに作業の分担を行い、どうにか追いつきたいです。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。本日の議事録ありがとうございました。また、先週の時間外作業に協力して頂きありがとうございました。作業の遅れが深刻化してきています。時間外の活動に今後も協力頂けると幸いです。よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。予定が合った時だけ作業をするのではなく、作業分担をして個別で作業を進めるなど必要だと思います。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。ますます作業が増えていて、役割分担を意識しながら頑張ってください。</t>
+  </si>
+  <si>
+    <t>基本設計の修正変更</t>
+  </si>
+  <si>
+    <t>進捗会議</t>
+  </si>
+  <si>
+    <t>基本設計の画面の作成</t>
+  </si>
+  <si>
+    <t>先週の火曜日、木曜日、金曜日に基本設計の修正を行いました。
+今週の火曜日までに基本設計の修正を完了し、テスト仕様を確認します。</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +279,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot;分&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -269,6 +305,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -392,11 +433,16 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -478,10 +524,22 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2049,14 +2107,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2342,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -3308,14 +3366,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3601,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -4567,14 +4625,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4802,7 +4860,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -12318,14 +12376,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -12339,7 +12401,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -12401,8 +12463,12 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13">
+        <v>70.0</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
@@ -12410,8 +12476,12 @@
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20.0</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
@@ -12419,8 +12489,12 @@
       <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20.0</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
@@ -12428,8 +12502,12 @@
       <c r="A9" s="11">
         <v>4.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="13">
+        <v>30.0</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
@@ -12437,8 +12515,12 @@
       <c r="A10" s="11">
         <v>5.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13">
+        <v>60.0</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
@@ -12446,7 +12528,6 @@
       <c r="A11" s="11">
         <v>6.0</v>
       </c>
-      <c r="B11" s="18"/>
       <c r="C11" s="8"/>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -12491,7 +12572,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -12500,7 +12583,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -12509,7 +12594,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -12518,17 +12605,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -12537,7 +12628,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -12553,7 +12646,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -13577,14 +13672,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -13598,7 +13697,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -13660,46 +13759,86 @@
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="13">
+        <v>210.0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>3.0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="11">
         <v>4.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="11">
         <v>5.0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="11">
@@ -13750,7 +13889,9 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -13759,7 +13900,9 @@
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -13768,7 +13911,9 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -13812,7 +13957,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -14836,14 +14981,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -15071,7 +15216,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
